--- a/Reports/excel/Accessibility_3.xlsx
+++ b/Reports/excel/Accessibility_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>Buttons Without Aria Label</t>
   </si>
@@ -87,7 +87,7 @@
 (link opens in new window)</t>
   </si>
   <si>
-    <t>Download the checklists</t>
+    <t>Create a CERP</t>
   </si>
   <si>
     <t>Basic Life Support (BLS)</t>
@@ -168,7 +168,7 @@
     <t>Out-of-Hospital Chain of Survival: Find out how to improve chances of survival and recovery for victims of cardiac arrest.</t>
   </si>
   <si>
-    <t>Visit the AHA Instructor Network</t>
+    <t>Become an Instructor</t>
   </si>
   <si>
     <t>View the Course Guide</t>
@@ -279,31 +279,13 @@
     <t>State Fundraising Notices</t>
   </si>
   <si>
-    <t>Broken Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response </t>
-  </si>
-  <si>
-    <t>https://x.com/American_Heart</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/american-heart-association</t>
-  </si>
-  <si>
-    <t>Same Text with Different Links</t>
-  </si>
-  <si>
-    <t>https://cpr.heart.org/en/course-catalog-search</t>
-  </si>
-  <si>
-    <t>https://shopcpr.heart.org/</t>
-  </si>
-  <si>
-    <t>Different Text for Same Link</t>
-  </si>
-  <si>
-    <t>https://cpr.heart.org/en/#</t>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>All HTML Semantics are present</t>
+  </si>
+  <si>
+    <t>Buttons Without Alt Attribute</t>
   </si>
   <si>
     <t>https://cpr.heart.org/-/media/feature/navigation/topnav/login-signup.svg</t>
@@ -399,447 +381,447 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="B2" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46">
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47">
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49">
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50">
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51">
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52">
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53">
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58">
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61">
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68">
-      <c r="D68" t="s">
+      <c r="C68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69">
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78">
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79">
-      <c r="D79" t="s">
+      <c r="C79" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="s">
+      <c r="C80" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="s">
+      <c r="C81" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="82">
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="s">
+      <c r="C84" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85">
-      <c r="D85" t="s">
+      <c r="C85" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="86">
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="s">
+      <c r="C87" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="88">
-      <c r="D88" t="s">
+      <c r="C88" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="90">
-      <c r="D90" t="s">
+      <c r="C90" t="s">
         <v>87</v>
       </c>
     </row>
@@ -852,7 +834,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="B93" t="s" s="3">
         <v>88</v>
       </c>
     </row>
@@ -860,112 +842,28 @@
       <c r="C94" t="s">
         <v>89</v>
       </c>
-      <c r="D94" t="n">
-        <v>403.0</v>
-      </c>
-      <c r="E94" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s" s="5">
         <v>90</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="C95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D95" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" t="n">
-        <v>403.0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="C97" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="98">
       <c r="C98" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" t="s">
-        <v>93</v>
-      </c>
-      <c r="F98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99">
       <c r="C99" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" t="s">
-        <v>94</v>
-      </c>
-      <c r="F99" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="C100" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" t="s">
-        <v>96</v>
-      </c>
-      <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="D104" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="D105" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
